--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Oxt-Avpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Oxt-Avpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,46 +540,46 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.6055695</v>
+        <v>0.1388385</v>
       </c>
       <c r="H2">
-        <v>1.211139</v>
+        <v>0.277677</v>
       </c>
       <c r="I2">
-        <v>0.2801432244230949</v>
+        <v>0.113840447003231</v>
       </c>
       <c r="J2">
-        <v>0.2100384425087053</v>
+        <v>0.0815056876720435</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.967</v>
+        <v>2.5383755</v>
       </c>
       <c r="N2">
-        <v>20.901</v>
+        <v>5.076751</v>
       </c>
       <c r="O2">
-        <v>0.5748265097082177</v>
+        <v>0.1536689326353429</v>
       </c>
       <c r="P2">
-        <v>0.6465066063008922</v>
+        <v>0.126906281076628</v>
       </c>
       <c r="Q2">
-        <v>4.2190027065</v>
+        <v>0.35242424685675</v>
       </c>
       <c r="R2">
-        <v>25.314016239</v>
+        <v>1.409696987427</v>
       </c>
       <c r="S2">
-        <v>0.1610337519135336</v>
+        <v>0.01749373998171682</v>
       </c>
       <c r="T2">
-        <v>0.1357912406590281</v>
+        <v>0.01034358370905221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,46 +602,46 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.6055695</v>
+        <v>0.1388385</v>
       </c>
       <c r="H3">
-        <v>1.211139</v>
+        <v>0.277677</v>
       </c>
       <c r="I3">
-        <v>0.2801432244230949</v>
+        <v>0.113840447003231</v>
       </c>
       <c r="J3">
-        <v>0.2100384425087053</v>
+        <v>0.0815056876720435</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.0314</v>
+        <v>6.967000000000001</v>
       </c>
       <c r="N3">
-        <v>8.062799999999999</v>
+        <v>20.901</v>
       </c>
       <c r="O3">
-        <v>0.3326188590839254</v>
+        <v>0.4217703226612587</v>
       </c>
       <c r="P3">
-        <v>0.2493973238257898</v>
+        <v>0.5224735624777741</v>
       </c>
       <c r="Q3">
-        <v>2.4412928823</v>
+        <v>0.9672878295000003</v>
       </c>
       <c r="R3">
-        <v>9.765171529199998</v>
+        <v>5.803726977000001</v>
       </c>
       <c r="S3">
-        <v>0.0931809196877019</v>
+        <v>0.04801452206445466</v>
       </c>
       <c r="T3">
-        <v>0.05238302546220813</v>
+        <v>0.04258456700021336</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,46 +664,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.6055695</v>
+        <v>0.1388385</v>
       </c>
       <c r="H4">
-        <v>1.211139</v>
+        <v>0.277677</v>
       </c>
       <c r="I4">
-        <v>0.2801432244230949</v>
+        <v>0.113840447003231</v>
       </c>
       <c r="J4">
-        <v>0.2100384425087053</v>
+        <v>0.0815056876720435</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.121778666666667</v>
+        <v>7.0130935</v>
       </c>
       <c r="N4">
-        <v>3.365336</v>
+        <v>14.026187</v>
       </c>
       <c r="O4">
-        <v>0.09255463120785677</v>
+        <v>0.4245607447033983</v>
       </c>
       <c r="P4">
-        <v>0.104096069873318</v>
+        <v>0.3506201564455979</v>
       </c>
       <c r="Q4">
-        <v>0.679314946284</v>
+        <v>0.97368738189975</v>
       </c>
       <c r="R4">
-        <v>4.075889677704</v>
+        <v>3.894749527599</v>
       </c>
       <c r="S4">
-        <v>0.0259285528218594</v>
+        <v>0.04833218495705949</v>
       </c>
       <c r="T4">
-        <v>0.02186417638746908</v>
+        <v>0.02857753696277793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,40 +732,40 @@
         <v>1.0735</v>
       </c>
       <c r="I5">
-        <v>0.1655377026188805</v>
+        <v>0.2934049749840486</v>
       </c>
       <c r="J5">
-        <v>0.1861687783426141</v>
+        <v>0.3151011992924826</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.967</v>
+        <v>2.5383755</v>
       </c>
       <c r="N5">
-        <v>20.901</v>
+        <v>5.076751</v>
       </c>
       <c r="O5">
-        <v>0.5748265097082177</v>
+        <v>0.1536689326353429</v>
       </c>
       <c r="P5">
-        <v>0.6465066063008922</v>
+        <v>0.126906281076628</v>
       </c>
       <c r="Q5">
-        <v>2.493024833333334</v>
+        <v>0.9083153664166668</v>
       </c>
       <c r="R5">
-        <v>22.4372235</v>
+        <v>5.449892198500001</v>
       </c>
       <c r="S5">
-        <v>0.09515545982152795</v>
+        <v>0.04508722933569823</v>
       </c>
       <c r="T5">
-        <v>0.1203593450854664</v>
+        <v>0.03998832136499438</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +794,40 @@
         <v>1.0735</v>
       </c>
       <c r="I6">
-        <v>0.1655377026188805</v>
+        <v>0.2934049749840486</v>
       </c>
       <c r="J6">
-        <v>0.1861687783426141</v>
+        <v>0.3151011992924826</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.0314</v>
+        <v>6.967000000000001</v>
       </c>
       <c r="N6">
-        <v>8.062799999999999</v>
+        <v>20.901</v>
       </c>
       <c r="O6">
-        <v>0.3326188590839254</v>
+        <v>0.4217703226612587</v>
       </c>
       <c r="P6">
-        <v>0.2493973238257898</v>
+        <v>0.5224735624777741</v>
       </c>
       <c r="Q6">
-        <v>1.4425693</v>
+        <v>2.493024833333334</v>
       </c>
       <c r="R6">
-        <v>8.6554158</v>
+        <v>22.43722350000001</v>
       </c>
       <c r="S6">
-        <v>0.05506096178046616</v>
+        <v>0.1237495109694407</v>
       </c>
       <c r="T6">
-        <v>0.0464299950985646</v>
+        <v>0.1646320461353625</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +856,40 @@
         <v>1.0735</v>
       </c>
       <c r="I7">
-        <v>0.1655377026188805</v>
+        <v>0.2934049749840486</v>
       </c>
       <c r="J7">
-        <v>0.1861687783426141</v>
+        <v>0.3151011992924826</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.121778666666667</v>
+        <v>7.0130935</v>
       </c>
       <c r="N7">
-        <v>3.365336</v>
+        <v>14.026187</v>
       </c>
       <c r="O7">
-        <v>0.09255463120785677</v>
+        <v>0.4245607447033983</v>
       </c>
       <c r="P7">
-        <v>0.104096069873318</v>
+        <v>0.3506201564455979</v>
       </c>
       <c r="Q7">
-        <v>0.4014097995555556</v>
+        <v>2.509518624083334</v>
       </c>
       <c r="R7">
-        <v>3.612688196000001</v>
+        <v>15.0571117445</v>
       </c>
       <c r="S7">
-        <v>0.01532128101688635</v>
+        <v>0.1245682346789096</v>
       </c>
       <c r="T7">
-        <v>0.019379438158583</v>
+        <v>0.1104808317921258</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +897,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04659966666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.139799</v>
+      </c>
+      <c r="I8">
+        <v>0.03820933590851887</v>
+      </c>
+      <c r="J8">
+        <v>0.04103477648802029</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.4037876666666667</v>
-      </c>
-      <c r="H8">
-        <v>1.211363</v>
-      </c>
-      <c r="I8">
-        <v>0.1867966912505961</v>
-      </c>
-      <c r="J8">
-        <v>0.210077289091238</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.967</v>
+        <v>2.5383755</v>
       </c>
       <c r="N8">
-        <v>20.901</v>
+        <v>5.076751</v>
       </c>
       <c r="O8">
-        <v>0.5748265097082177</v>
+        <v>0.1536689326353429</v>
       </c>
       <c r="P8">
-        <v>0.6465066063008922</v>
+        <v>0.126906281076628</v>
       </c>
       <c r="Q8">
-        <v>2.813188673666666</v>
+        <v>0.1182874521748333</v>
       </c>
       <c r="R8">
-        <v>25.318698063</v>
+        <v>0.709724713049</v>
       </c>
       <c r="S8">
-        <v>0.1073756900566237</v>
+        <v>0.005871587865767374</v>
       </c>
       <c r="T8">
-        <v>0.1358163552312677</v>
+        <v>0.005207570878905308</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +959,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.4037876666666667</v>
+        <v>0.04659966666666667</v>
       </c>
       <c r="H9">
-        <v>1.211363</v>
+        <v>0.139799</v>
       </c>
       <c r="I9">
-        <v>0.1867966912505961</v>
+        <v>0.03820933590851887</v>
       </c>
       <c r="J9">
-        <v>0.210077289091238</v>
+        <v>0.04103477648802029</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.0314</v>
+        <v>6.967000000000001</v>
       </c>
       <c r="N9">
-        <v>8.062799999999999</v>
+        <v>20.901</v>
       </c>
       <c r="O9">
-        <v>0.3326188590839254</v>
+        <v>0.4217703226612587</v>
       </c>
       <c r="P9">
-        <v>0.2493973238257898</v>
+        <v>0.5224735624777741</v>
       </c>
       <c r="Q9">
-        <v>1.6278295994</v>
+        <v>0.3246598776666668</v>
       </c>
       <c r="R9">
-        <v>9.766977596399999</v>
+        <v>2.921938899000001</v>
       </c>
       <c r="S9">
-        <v>0.06213210232442554</v>
+        <v>0.01611556393480842</v>
       </c>
       <c r="T9">
-        <v>0.05239271369593154</v>
+        <v>0.02143958585717516</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.4037876666666667</v>
+        <v>0.04659966666666667</v>
       </c>
       <c r="H10">
-        <v>1.211363</v>
+        <v>0.139799</v>
       </c>
       <c r="I10">
-        <v>0.1867966912505961</v>
+        <v>0.03820933590851887</v>
       </c>
       <c r="J10">
-        <v>0.210077289091238</v>
+        <v>0.04103477648802029</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.121778666666667</v>
+        <v>7.0130935</v>
       </c>
       <c r="N10">
-        <v>3.365336</v>
+        <v>14.026187</v>
       </c>
       <c r="O10">
-        <v>0.09255463120785677</v>
+        <v>0.4245607447033983</v>
       </c>
       <c r="P10">
-        <v>0.104096069873318</v>
+        <v>0.3506201564455979</v>
       </c>
       <c r="Q10">
-        <v>0.4529603903297778</v>
+        <v>0.3268078194021667</v>
       </c>
       <c r="R10">
-        <v>4.076643512968</v>
+        <v>1.960846916413</v>
       </c>
       <c r="S10">
-        <v>0.01728889886954681</v>
+        <v>0.01622218410794307</v>
       </c>
       <c r="T10">
-        <v>0.02186822016403873</v>
+        <v>0.01438761975193982</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1083,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,40 +1104,40 @@
         <v>0.22617</v>
       </c>
       <c r="I11">
-        <v>0.05231438593569473</v>
+        <v>0.0927238982656855</v>
       </c>
       <c r="J11">
-        <v>0.03922290880088403</v>
+        <v>0.0663869941723156</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.967</v>
+        <v>2.5383755</v>
       </c>
       <c r="N11">
-        <v>20.901</v>
+        <v>5.076751</v>
       </c>
       <c r="O11">
-        <v>0.5748265097082177</v>
+        <v>0.1536689326353429</v>
       </c>
       <c r="P11">
-        <v>0.6465066063008922</v>
+        <v>0.126906281076628</v>
       </c>
       <c r="Q11">
-        <v>0.7878631949999999</v>
+        <v>0.2870521934175</v>
       </c>
       <c r="R11">
-        <v>4.727179169999999</v>
+        <v>1.14820877367</v>
       </c>
       <c r="S11">
-        <v>0.03007169587494407</v>
+        <v>0.01424878247627601</v>
       </c>
       <c r="T11">
-        <v>0.02535786965810893</v>
+        <v>0.008424926542264347</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1145,13 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,40 +1166,40 @@
         <v>0.22617</v>
       </c>
       <c r="I12">
-        <v>0.05231438593569473</v>
+        <v>0.0927238982656855</v>
       </c>
       <c r="J12">
-        <v>0.03922290880088403</v>
+        <v>0.0663869941723156</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.0314</v>
+        <v>6.967000000000001</v>
       </c>
       <c r="N12">
-        <v>8.062799999999999</v>
+        <v>20.901</v>
       </c>
       <c r="O12">
-        <v>0.3326188590839254</v>
+        <v>0.4217703226612587</v>
       </c>
       <c r="P12">
-        <v>0.2493973238257898</v>
+        <v>0.5224735624777741</v>
       </c>
       <c r="Q12">
-        <v>0.4558908689999999</v>
+        <v>0.7878631950000002</v>
       </c>
       <c r="R12">
-        <v>1.823563476</v>
+        <v>4.727179170000001</v>
       </c>
       <c r="S12">
-        <v>0.01740075136360694</v>
+        <v>0.03910818848992791</v>
       </c>
       <c r="T12">
-        <v>0.009782088487603497</v>
+        <v>0.03468544934740096</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1207,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,40 +1228,40 @@
         <v>0.22617</v>
       </c>
       <c r="I13">
-        <v>0.05231438593569473</v>
+        <v>0.0927238982656855</v>
       </c>
       <c r="J13">
-        <v>0.03922290880088403</v>
+        <v>0.0663869941723156</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.121778666666667</v>
+        <v>7.0130935</v>
       </c>
       <c r="N13">
-        <v>3.365336</v>
+        <v>14.026187</v>
       </c>
       <c r="O13">
-        <v>0.09255463120785677</v>
+        <v>0.4245607447033983</v>
       </c>
       <c r="P13">
-        <v>0.104096069873318</v>
+        <v>0.3506201564455979</v>
       </c>
       <c r="Q13">
-        <v>0.12685634052</v>
+        <v>0.7930756784475</v>
       </c>
       <c r="R13">
-        <v>0.76113804312</v>
+        <v>3.17230271379</v>
       </c>
       <c r="S13">
-        <v>0.004841938697143715</v>
+        <v>0.03936692729948157</v>
       </c>
       <c r="T13">
-        <v>0.004082950655171604</v>
+        <v>0.02327661828265029</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1269,13 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1287,46 +1284,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3488446666666666</v>
+        <v>0.5632320000000001</v>
       </c>
       <c r="H14">
-        <v>1.046534</v>
+        <v>1.689696</v>
       </c>
       <c r="I14">
-        <v>0.1613794448742873</v>
+        <v>0.461821343838516</v>
       </c>
       <c r="J14">
-        <v>0.1814922741257654</v>
+        <v>0.495971342375138</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.967</v>
+        <v>2.5383755</v>
       </c>
       <c r="N14">
-        <v>20.901</v>
+        <v>5.076751</v>
       </c>
       <c r="O14">
-        <v>0.5748265097082177</v>
+        <v>0.1536689326353429</v>
       </c>
       <c r="P14">
-        <v>0.6465066063008922</v>
+        <v>0.126906281076628</v>
       </c>
       <c r="Q14">
-        <v>2.430400792666666</v>
+        <v>1.429694309616</v>
       </c>
       <c r="R14">
-        <v>21.873607134</v>
+        <v>8.578165857696</v>
       </c>
       <c r="S14">
-        <v>0.0927651830357363</v>
+        <v>0.07096759297588444</v>
       </c>
       <c r="T14">
-        <v>0.1173359542148798</v>
+        <v>0.06294187858141176</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1331,13 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1349,46 +1346,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3488446666666666</v>
+        <v>0.5632320000000001</v>
       </c>
       <c r="H15">
-        <v>1.046534</v>
+        <v>1.689696</v>
       </c>
       <c r="I15">
-        <v>0.1613794448742873</v>
+        <v>0.461821343838516</v>
       </c>
       <c r="J15">
-        <v>0.1814922741257654</v>
+        <v>0.495971342375138</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.0314</v>
+        <v>6.967000000000001</v>
       </c>
       <c r="N15">
-        <v>8.062799999999999</v>
+        <v>20.901</v>
       </c>
       <c r="O15">
-        <v>0.3326188590839254</v>
+        <v>0.4217703226612587</v>
       </c>
       <c r="P15">
-        <v>0.2493973238257898</v>
+        <v>0.5224735624777741</v>
       </c>
       <c r="Q15">
-        <v>1.4063323892</v>
+        <v>3.924037344000001</v>
       </c>
       <c r="R15">
-        <v>8.437994335199997</v>
+        <v>35.31633609600001</v>
       </c>
       <c r="S15">
-        <v>0.05367784683368268</v>
+        <v>0.194782537202627</v>
       </c>
       <c r="T15">
-        <v>0.04526368746202254</v>
+        <v>0.2591319141376222</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1393,13 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,232 +1408,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3488446666666666</v>
+        <v>0.5632320000000001</v>
       </c>
       <c r="H16">
-        <v>1.046534</v>
+        <v>1.689696</v>
       </c>
       <c r="I16">
-        <v>0.1613794448742873</v>
+        <v>0.461821343838516</v>
       </c>
       <c r="J16">
-        <v>0.1814922741257654</v>
+        <v>0.495971342375138</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.121778666666667</v>
+        <v>7.0130935</v>
       </c>
       <c r="N16">
-        <v>3.365336</v>
+        <v>14.026187</v>
       </c>
       <c r="O16">
-        <v>0.09255463120785677</v>
+        <v>0.4245607447033983</v>
       </c>
       <c r="P16">
-        <v>0.104096069873318</v>
+        <v>0.3506201564455979</v>
       </c>
       <c r="Q16">
-        <v>0.3913265050471111</v>
+        <v>3.949998678192001</v>
       </c>
       <c r="R16">
-        <v>3.521938545424</v>
+        <v>23.699992069152</v>
       </c>
       <c r="S16">
-        <v>0.01493641500486832</v>
+        <v>0.1960712136600045</v>
       </c>
       <c r="T16">
-        <v>0.01889263244886306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.3325223333333334</v>
-      </c>
-      <c r="H17">
-        <v>0.9975670000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.1538285508974464</v>
-      </c>
-      <c r="J17">
-        <v>0.1730003071307932</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>6.967</v>
-      </c>
-      <c r="N17">
-        <v>20.901</v>
-      </c>
-      <c r="O17">
-        <v>0.5748265097082177</v>
-      </c>
-      <c r="P17">
-        <v>0.6465066063008922</v>
-      </c>
-      <c r="Q17">
-        <v>2.316683096333334</v>
-      </c>
-      <c r="R17">
-        <v>20.850147867</v>
-      </c>
-      <c r="S17">
-        <v>0.08842472900585205</v>
-      </c>
-      <c r="T17">
-        <v>0.1118458414521411</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.3325223333333334</v>
-      </c>
-      <c r="H18">
-        <v>0.9975670000000001</v>
-      </c>
-      <c r="I18">
-        <v>0.1538285508974464</v>
-      </c>
-      <c r="J18">
-        <v>0.1730003071307932</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>4.0314</v>
-      </c>
-      <c r="N18">
-        <v>8.062799999999999</v>
-      </c>
-      <c r="O18">
-        <v>0.3326188590839254</v>
-      </c>
-      <c r="P18">
-        <v>0.2493973238257898</v>
-      </c>
-      <c r="Q18">
-        <v>1.3405305346</v>
-      </c>
-      <c r="R18">
-        <v>8.0431832076</v>
-      </c>
-      <c r="S18">
-        <v>0.05116627709404218</v>
-      </c>
-      <c r="T18">
-        <v>0.04314581361945952</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.3325223333333334</v>
-      </c>
-      <c r="H19">
-        <v>0.9975670000000001</v>
-      </c>
-      <c r="I19">
-        <v>0.1538285508974464</v>
-      </c>
-      <c r="J19">
-        <v>0.1730003071307932</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>1.121778666666667</v>
-      </c>
-      <c r="N19">
-        <v>3.365336</v>
-      </c>
-      <c r="O19">
-        <v>0.09255463120785677</v>
-      </c>
-      <c r="P19">
-        <v>0.104096069873318</v>
-      </c>
-      <c r="Q19">
-        <v>0.3730164597235556</v>
-      </c>
-      <c r="R19">
-        <v>3.357148137512</v>
-      </c>
-      <c r="S19">
-        <v>0.01423754479755218</v>
-      </c>
-      <c r="T19">
-        <v>0.01800865205919252</v>
+        <v>0.1738975496561041</v>
       </c>
     </row>
   </sheetData>
